--- a/truth or dare app.xlsx
+++ b/truth or dare app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapopova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapopova/Desktop/truth or dare /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429EB8A2-5C4F-5E47-9D50-D9232446DEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40965F-6320-7245-BD86-76492AC98859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{31C41888-2051-E84C-97A4-61AC5BDB6069}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{31C41888-2051-E84C-97A4-61AC5BDB6069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Проверка</t>
   </si>
@@ -44,33 +44,18 @@
     <t>Комментарии</t>
   </si>
   <si>
-    <t>Приложение открывается на андроиде и ios</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Возможность выбрать для кого будет игра - для друзей или пары</t>
   </si>
   <si>
-    <t>Возможность ввести имена в варианте для пары</t>
-  </si>
-  <si>
     <t>Возможность выбрать, какой уровень "сложности" для вопросов</t>
   </si>
   <si>
-    <t>Не сливающийся картинка колеса при вращении (когда выбирается имя участника), которое рандомно выбирает имя</t>
-  </si>
-  <si>
-    <t>Работоспособность кнопок "правда" и "действие"</t>
-  </si>
-  <si>
     <t>Отображение заданий и не съезжание текста</t>
   </si>
   <si>
-    <t xml:space="preserve">Возможность выйти и изменить уровень "сложности" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Возможность озвучки вопросов </t>
   </si>
   <si>
@@ -80,9 +65,6 @@
     <t xml:space="preserve">Перелистывание между заданиями после выполнения </t>
   </si>
   <si>
-    <t>Регистрация через эппл, фейсбук, гугл</t>
-  </si>
-  <si>
     <t>Корректность работы при смене языка приложения</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>Легкое запоминание для ориентирования в приложении</t>
   </si>
   <si>
-    <t>Запоминаемость - насколько легко пользователям ориентироваться в интерфейсе продукта, если они им не пользовались некоторое время</t>
-  </si>
-  <si>
     <t>Навигация использования при первой установке</t>
   </si>
   <si>
@@ -138,13 +117,40 @@
   </si>
   <si>
     <t>Обратная связь от пользователей в случае проблем/рекомендаций или нахождения багов. Окружение - андроид и айос</t>
+  </si>
+  <si>
+    <t>Возможность ввести имена в варианте для пары и друзей</t>
+  </si>
+  <si>
+    <t>Не плавающая картинка крутящего колеса</t>
+  </si>
+  <si>
+    <t>Приложение не закрывается после длительного использования</t>
+  </si>
+  <si>
+    <t>Отображение  текста при нажатии "правда" и "действие"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможность выйти из игры и изменить уровень "сложности" </t>
+  </si>
+  <si>
+    <t>Присутствует возможность установки из Google play, app store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обширная возможность создать аккаунт </t>
+  </si>
+  <si>
+    <t>Небольшой размер приложения, чтобы не грузить CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранение необходимой кэш информации в случае обновления приложения </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +173,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -188,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,19 +226,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -237,36 +235,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,351 +595,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1148D3E1-9893-AB42-80C4-17F3A9076FA6}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="71" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="103" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="74" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="82" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="63" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="75" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="46" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="61" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="64" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="81" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="59" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="81" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="89" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="70" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="68" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="70" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="63" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="79" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="79" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="105" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="72" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="55" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="72" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="56" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="101" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="58" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="110" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="124" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="106" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="72" customHeight="1">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="68" customHeight="1"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+  <mergeCells count="65">
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -942,32 +975,36 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/truth or dare app.xlsx
+++ b/truth or dare app.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapopova/Desktop/truth or dare /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40965F-6320-7245-BD86-76492AC98859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE723C97-A26D-3B45-BBEE-C0FB4AF5DAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{31C41888-2051-E84C-97A4-61AC5BDB6069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -237,38 +238,38 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -597,349 +598,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1148D3E1-9893-AB42-80C4-17F3A9076FA6}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="71" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="103" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="74" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="82" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="75" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="46" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="61" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="64" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="81" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="59" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="81" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="89" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="70" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="68" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="70" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="63" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="79" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="79" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="105" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="72" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="55" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="72" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="56" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="58" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="54" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1"/>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="106" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="72" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1"/>
+      <c r="C31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="68" customHeight="1"/>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -956,56 +1006,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2609BCB-E862-9542-A40E-B47E2F842E9C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>